--- a/Estadística/Cualitativo/Valoración del impacto de los pulsos binaurales.xlsx
+++ b/Estadística/Cualitativo/Valoración del impacto de los pulsos binaurales.xlsx
@@ -1,42 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmvg2\Documents\Pulsos_Binaurales\Excel\Cualitativo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmvg2\Documents\Repositorio_Pulsos\Pulsos_Binaurales\Estadística\Cualitativo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C42FF9-3F2B-4AC8-B913-10FA25963D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E354B573-7F3A-4FFD-9592-AECD23A94318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Respuestas de formulario 1" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="Respuestas de formulario 2" sheetId="2" state="hidden" r:id="rId2"/>
-    <sheet name="Data completa" sheetId="3" r:id="rId3"/>
-    <sheet name="Genero" sheetId="5" r:id="rId4"/>
-    <sheet name="Edad" sheetId="6" r:id="rId5"/>
-    <sheet name="Nivel de relajación" sheetId="7" r:id="rId6"/>
-    <sheet name="Nivel de estrés" sheetId="8" r:id="rId7"/>
-    <sheet name="Nivel de enojo" sheetId="10" r:id="rId8"/>
-    <sheet name="Nivel de disgusto" sheetId="11" r:id="rId9"/>
-    <sheet name="Emociones" sheetId="13" r:id="rId10"/>
-    <sheet name="Impacto" sheetId="15" r:id="rId11"/>
+    <sheet name="Tabla de valores" sheetId="16" r:id="rId3"/>
+    <sheet name="Data completa" sheetId="3" r:id="rId4"/>
+    <sheet name="Genero" sheetId="5" r:id="rId5"/>
+    <sheet name="Edad" sheetId="6" r:id="rId6"/>
+    <sheet name="Nivel de relajación" sheetId="7" r:id="rId7"/>
+    <sheet name="Nivel de estrés" sheetId="8" r:id="rId8"/>
+    <sheet name="Nivel de enojo" sheetId="10" r:id="rId9"/>
+    <sheet name="Nivel de disgusto" sheetId="11" r:id="rId10"/>
+    <sheet name="Emociones" sheetId="13" r:id="rId11"/>
+    <sheet name="Impacto" sheetId="15" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Data completa'!$B$1:$P$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Data completa'!$B$1:$P$20</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId12"/>
-    <pivotCache cacheId="1" r:id="rId13"/>
-    <pivotCache cacheId="2" r:id="rId14"/>
-    <pivotCache cacheId="3" r:id="rId15"/>
-    <pivotCache cacheId="4" r:id="rId16"/>
-    <pivotCache cacheId="5" r:id="rId17"/>
-    <pivotCache cacheId="6" r:id="rId18"/>
+    <pivotCache cacheId="0" r:id="rId13"/>
+    <pivotCache cacheId="1" r:id="rId14"/>
+    <pivotCache cacheId="2" r:id="rId15"/>
+    <pivotCache cacheId="3" r:id="rId16"/>
+    <pivotCache cacheId="4" r:id="rId17"/>
+    <pivotCache cacheId="5" r:id="rId18"/>
+    <pivotCache cacheId="6" r:id="rId19"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -55,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="133">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -446,6 +447,15 @@
   <si>
     <t>Nivel de enojo (antes)</t>
   </si>
+  <si>
+    <t>Nivel</t>
+  </si>
+  <si>
+    <t>Valor Numérico</t>
+  </si>
+  <si>
+    <t>Cambio</t>
+  </si>
 </sst>
 </file>
 
@@ -550,7 +560,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -576,7 +586,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1589,7 +1598,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Nivel de enojo'!$G$8</c:f>
+              <c:f>'Nivel de enojo'!$H$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1638,7 +1647,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Nivel de enojo'!$F$9:$F$13</c:f>
+              <c:f>'Nivel de enojo'!$G$9:$G$13</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1658,7 +1667,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Nivel de enojo'!$G$9:$G$13</c:f>
+              <c:f>'Nivel de enojo'!$H$9:$H$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2052,7 +2061,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Nivel de enojo'!$H$15</c:f>
+              <c:f>'Nivel de enojo'!$I$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2105,7 +2114,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Nivel de enojo'!$F$16:$F$20</c:f>
+              <c:f>'Nivel de enojo'!$G$16:$G$20</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2128,7 +2137,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Nivel de enojo'!$H$16:$H$20</c:f>
+              <c:f>'Nivel de enojo'!$I$16:$I$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2161,7 +2170,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Nivel de enojo'!$I$15</c:f>
+              <c:f>'Nivel de enojo'!$J$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2214,7 +2223,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Nivel de enojo'!$F$16:$F$20</c:f>
+              <c:f>'Nivel de enojo'!$G$16:$G$20</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2237,7 +2246,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Nivel de enojo'!$I$16:$I$20</c:f>
+              <c:f>'Nivel de enojo'!$J$16:$J$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3010,7 +3019,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Nivel de disgusto'!$G$1</c:f>
+              <c:f>'Nivel de disgusto'!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3059,7 +3068,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Nivel de disgusto'!$F$2:$F$5</c:f>
+              <c:f>'Nivel de disgusto'!$G$2:$G$5</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -3076,7 +3085,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Nivel de disgusto'!$G$2:$G$5</c:f>
+              <c:f>'Nivel de disgusto'!$H$2:$H$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3839,7 +3848,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Nivel de disgusto'!$G$8</c:f>
+              <c:f>'Nivel de disgusto'!$H$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3888,7 +3897,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Nivel de disgusto'!$F$9:$F$14</c:f>
+              <c:f>'Nivel de disgusto'!$G$9:$G$14</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -3911,7 +3920,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Nivel de disgusto'!$G$9:$G$14</c:f>
+              <c:f>'Nivel de disgusto'!$H$9:$H$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4308,7 +4317,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Nivel de disgusto'!$H$15</c:f>
+              <c:f>'Nivel de disgusto'!$I$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4361,7 +4370,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Nivel de disgusto'!$F$16:$F$20</c:f>
+              <c:f>'Nivel de disgusto'!$G$16:$G$20</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -4384,7 +4393,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Nivel de disgusto'!$H$16:$H$20</c:f>
+              <c:f>'Nivel de disgusto'!$I$16:$I$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4417,7 +4426,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Nivel de disgusto'!$I$15</c:f>
+              <c:f>'Nivel de disgusto'!$J$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4470,7 +4479,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Nivel de disgusto'!$F$16:$F$20</c:f>
+              <c:f>'Nivel de disgusto'!$G$16:$G$20</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -4493,7 +4502,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Nivel de disgusto'!$I$16:$I$20</c:f>
+              <c:f>'Nivel de disgusto'!$J$16:$J$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -8171,7 +8180,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Nivel de relajación'!$G$1</c:f>
+              <c:f>'Nivel de relajación'!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8220,7 +8229,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Nivel de relajación'!$F$2:$F$5</c:f>
+              <c:f>'Nivel de relajación'!$G$2:$G$5</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -8237,7 +8246,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Nivel de relajación'!$G$2:$G$5</c:f>
+              <c:f>'Nivel de relajación'!$H$2:$H$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -8719,7 +8728,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Nivel de relajación'!$G$8</c:f>
+              <c:f>'Nivel de relajación'!$H$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8768,7 +8777,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Nivel de relajación'!$F$9:$F$14</c:f>
+              <c:f>'Nivel de relajación'!$G$9:$G$14</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -8791,7 +8800,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Nivel de relajación'!$G$9:$G$14</c:f>
+              <c:f>'Nivel de relajación'!$H$9:$H$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -9188,7 +9197,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Nivel de relajación'!$H$31</c:f>
+              <c:f>'Nivel de relajación'!$I$31</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9237,7 +9246,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Nivel de estrés'!$E$31:$E$35</c:f>
+              <c:f>'Nivel de estrés'!$F$31:$F$35</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -9260,7 +9269,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Nivel de relajación'!$H$32:$H$36</c:f>
+              <c:f>'Nivel de relajación'!$I$32:$I$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -9293,7 +9302,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Nivel de relajación'!$I$31</c:f>
+              <c:f>'Nivel de relajación'!$J$31</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9342,7 +9351,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Nivel de estrés'!$E$31:$E$35</c:f>
+              <c:f>'Nivel de estrés'!$F$31:$F$35</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -9365,7 +9374,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Nivel de relajación'!$I$32:$I$36</c:f>
+              <c:f>'Nivel de relajación'!$J$32:$J$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -9976,7 +9985,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Nivel de estrés'!$G$1</c:f>
+              <c:f>'Nivel de estrés'!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10025,7 +10034,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Nivel de estrés'!$F$2:$F$5</c:f>
+              <c:f>'Nivel de estrés'!$G$2:$G$5</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -10042,7 +10051,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Nivel de estrés'!$G$2:$G$5</c:f>
+              <c:f>'Nivel de estrés'!$H$2:$H$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -10643,7 +10652,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Nivel de estrés'!$G$8</c:f>
+              <c:f>'Nivel de estrés'!$H$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10692,7 +10701,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Nivel de estrés'!$F$9:$F$14</c:f>
+              <c:f>'Nivel de estrés'!$G$9:$G$14</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -10715,7 +10724,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Nivel de estrés'!$G$9:$G$14</c:f>
+              <c:f>'Nivel de estrés'!$H$9:$H$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -11112,7 +11121,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Nivel de estrés'!$G$30</c:f>
+              <c:f>'Nivel de estrés'!$H$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11161,7 +11170,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Nivel de estrés'!$E$31:$E$35</c:f>
+              <c:f>'Nivel de estrés'!$F$31:$F$35</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -11184,7 +11193,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Nivel de estrés'!$G$31:$G$35</c:f>
+              <c:f>'Nivel de estrés'!$H$31:$H$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -11217,7 +11226,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Nivel de estrés'!$H$30</c:f>
+              <c:f>'Nivel de estrés'!$I$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11266,7 +11275,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Nivel de estrés'!$E$31:$E$35</c:f>
+              <c:f>'Nivel de estrés'!$F$31:$F$35</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -11289,7 +11298,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Nivel de estrés'!$H$31:$H$35</c:f>
+              <c:f>'Nivel de estrés'!$I$31:$I$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -11981,7 +11990,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Nivel de enojo'!$G$1</c:f>
+              <c:f>'Nivel de enojo'!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12030,7 +12039,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Nivel de enojo'!$F$2:$F$5</c:f>
+              <c:f>'Nivel de enojo'!$G$2:$G$5</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -12047,7 +12056,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Nivel de enojo'!$G$2:$G$5</c:f>
+              <c:f>'Nivel de enojo'!$H$2:$H$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -22171,13 +22180,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>490765</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>79375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>68036</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>34018</xdr:rowOff>
@@ -22207,13 +22216,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>282121</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>76654</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>498929</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>124732</xdr:rowOff>
@@ -22243,13 +22252,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>249464</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>544552</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
@@ -22286,13 +22295,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>504265</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>130735</xdr:rowOff>
@@ -22324,13 +22333,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>9339</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>37353</xdr:rowOff>
@@ -22362,13 +22371,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>753222</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>17929</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>67422</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>53041</xdr:rowOff>
@@ -22403,13 +22412,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>504265</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>130735</xdr:rowOff>
@@ -22441,13 +22450,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>9339</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>37353</xdr:rowOff>
@@ -22479,13 +22488,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>753222</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>17929</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>67422</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>53041</xdr:rowOff>
@@ -22522,13 +22531,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>504265</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>130735</xdr:rowOff>
@@ -22560,13 +22569,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>9339</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>37353</xdr:rowOff>
@@ -22598,13 +22607,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>753222</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>17929</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>67422</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>53041</xdr:rowOff>
@@ -22880,7 +22889,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Margareth Vela" refreshedDate="45197.013496874999" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="18" xr:uid="{91024577-4089-4D4F-896D-3CB62E675EEC}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:D19" sheet="Nivel de relajación"/>
+    <worksheetSource ref="A1:E19" sheet="Nivel de relajación"/>
   </cacheSource>
   <cacheFields count="4">
     <cacheField name="Nivel de relajación Antes" numFmtId="0">
@@ -22936,7 +22945,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Margareth Vela" refreshedDate="45197.031986921298" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="18" xr:uid="{ED0A4A69-BF29-4AB5-977D-2BB0190A9EF0}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:D19" sheet="Nivel de estrés"/>
+    <worksheetSource ref="A1:E19" sheet="Nivel de estrés"/>
   </cacheSource>
   <cacheFields count="4">
     <cacheField name="Nivel de estrés Antes" numFmtId="0">
@@ -22983,7 +22992,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Margareth Vela" refreshedDate="45197.032157291665" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="18" xr:uid="{F50A1061-3F51-400F-86F0-0F7D6B79E6ED}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:D19" sheet="Nivel de enojo"/>
+    <worksheetSource ref="A1:E19" sheet="Nivel de enojo"/>
   </cacheSource>
   <cacheFields count="4">
     <cacheField name="Nivel de enojo Antes" numFmtId="0">
@@ -23019,7 +23028,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition6.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Margareth Vela" refreshedDate="45197.037563425925" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="18" xr:uid="{0F3B9C87-48E1-4724-82F0-4BA6BC97A467}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:D19" sheet="Nivel de disgusto"/>
+    <worksheetSource ref="A1:E19" sheet="Nivel de disgusto"/>
   </cacheSource>
   <cacheFields count="4">
     <cacheField name="Nivel de enojo Antes" numFmtId="0">
@@ -24047,26 +24056,25 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{26429061-84E3-4E85-A88C-50C889A2ED39}" name="PivotTable17" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="F16:G21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AC3AAC8D-4B55-4238-BFE5-AC286D978A61}" name="PivotTable15" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
+  <location ref="G1:H5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="5">
-        <item x="3"/>
+      <items count="4">
+        <item x="2"/>
         <item x="1"/>
         <item x="0"/>
-        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="0"/>
+    <field x="2"/>
   </rowFields>
-  <rowItems count="5">
+  <rowItems count="4">
     <i>
       <x/>
     </i>
@@ -24076,9 +24084,6 @@
     <i>
       <x v="2"/>
     </i>
-    <i>
-      <x v="3"/>
-    </i>
     <i t="grand">
       <x/>
     </i>
@@ -24087,8 +24092,28 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Count of Nivel de estrés Antes" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Count of Estado" fld="2" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="9" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -24103,7 +24128,7 @@
 
 <file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C444F529-66A3-4F07-8581-C2FFD9147383}" name="PivotTable16" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="F8:G13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <location ref="G8:H13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -24187,7 +24212,7 @@
 
 <file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{26345E15-1C3E-4406-9792-49D2B4A3183C}" name="PivotTable15" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
-  <location ref="F1:G5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <location ref="G1:H5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -24267,7 +24292,7 @@
 
 <file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{395F9435-79F6-4A08-9726-D030342A1E03}" name="PivotTable16" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="F8:G14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <location ref="G8:H14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -24364,7 +24389,7 @@
 
 <file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E4355458-2A94-46C5-A947-CD8F2E68AC68}" name="PivotTable15" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13">
-  <location ref="F1:G5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <location ref="G1:H5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -24452,78 +24477,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9A2562D1-5711-4384-8D47-9DA518565A5B}" name="PivotTable41" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
-  <location ref="A9:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="4">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="5">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item h="1" x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Preferencia en la intensidad del pulso." fld="1" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9769AB17-2B62-4891-AA5D-579C67E77036}" name="PivotTable40" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
@@ -24622,7 +24575,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{36656009-7884-4F25-9A1D-2AAB15589FCA}" name="PivotTable43" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A22:B28" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
@@ -24691,7 +24644,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C48FF99C-BF2C-4B12-940B-F11137817760}" name="PivotTable42" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A15:B20" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
@@ -24735,6 +24688,78 @@
   <dataFields count="1">
     <dataField name="Count of Efecto en nivel de concentración." fld="2" subtotal="count" baseField="2" baseItem="0"/>
   </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9A2562D1-5711-4384-8D47-9DA518565A5B}" name="PivotTable41" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="A9:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item h="1" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Preferencia en la intensidad del pulso." fld="1" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -24856,8 +24881,122 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4FDC6DB7-EC61-486B-85A2-97A1F1E88408}" name="PivotTable23" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G24:H29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Nivel de relajacion Después" fld="1" subtotal="count" baseField="1" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{33480972-96DF-4DDD-BCB3-DA404F63BF9C}" name="PivotTable21" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G16:H22" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="6">
+        <item x="4"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Nivel de relajación Antes" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5B852BF5-4C0D-4911-A96F-8866A4A53377}" name="PivotTable16" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="F8:G14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <location ref="G8:H14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -24930,9 +25069,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{95514B3D-3B97-457F-999F-52EA9B1A991B}" name="PivotTable15" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
-  <location ref="F1:G5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <location ref="G1:H5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -24995,194 +25134,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4FDC6DB7-EC61-486B-85A2-97A1F1E88408}" name="PivotTable23" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="F24:G29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="4">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="5">
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Nivel de relajacion Después" fld="1" subtotal="count" baseField="1" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{33480972-96DF-4DDD-BCB3-DA404F63BF9C}" name="PivotTable21" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="F16:G22" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="4">
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="6">
-        <item x="4"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Nivel de relajación Antes" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AC3AAC8D-4B55-4238-BFE5-AC286D978A61}" name="PivotTable15" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
-  <location ref="F1:G5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="4">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="4">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Estado" fld="2" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="9" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4F08A89A-EC7B-49E7-AD2A-3C5AF8B0377E}" name="PivotTable16" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
-  <location ref="F8:G14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <location ref="G8:H14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -25259,9 +25213,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A371A789-6C0E-4489-8B7C-9F382A32819E}" name="PivotTable25" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
-  <location ref="F23:G28" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <location ref="G23:H28" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -25301,6 +25255,61 @@
   </colItems>
   <dataFields count="1">
     <dataField name="Count of Nivel de estrés Después" fld="1" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{26429061-84E3-4E85-A88C-50C889A2ED39}" name="PivotTable17" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G16:H21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="5">
+        <item x="3"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Nivel de estrés Antes" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -26165,11 +26174,600 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4633A3DC-41A5-45E4-B5B1-871D938969A7}">
+  <dimension ref="A1:L39"/>
+  <sheetViews>
+    <sheetView zoomScale="82" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="str">
+        <f>IF(A2&lt;B2,"Incremento",IF(A2&gt;B2,"Decremento","Sin cambio"))</f>
+        <v>Incremento</v>
+      </c>
+      <c r="D2">
+        <f>_xlfn.XLOOKUP(A2,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)-_xlfn.XLOOKUP(B2,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)</f>
+        <v>-1</v>
+      </c>
+      <c r="E2" t="str">
+        <f>IF(C2="Incremento", IF(ABS(D2)=1, CONCATENATE("Más ", ABS(D2), " nivel"), CONCATENATE("Más ", ABS(D2), " niveles")),IF(C2="Decremento",IF(D2=1, CONCATENATE("Menos ", D2, " nivel"), CONCATENATE("Menos ", D2, " niveles")), "Sin cambio"))</f>
+        <v>Más 1 nivel</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C18" si="0">IF(A3&lt;B3,"Incremento",IF(A3&gt;B3,"Decremento","Sin cambio"))</f>
+        <v>Sin cambio</v>
+      </c>
+      <c r="D3">
+        <f>_xlfn.XLOOKUP(A3,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)-_xlfn.XLOOKUP(B3,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E18" si="1">IF(C3="Incremento", IF(ABS(D3)=1, CONCATENATE("Más ", ABS(D3), " nivel"), CONCATENATE("Más ", ABS(D3), " niveles")),IF(C3="Decremento",IF(D3=1, CONCATENATE("Menos ", D3, " nivel"), CONCATENATE("Menos ", D3, " niveles")), "Sin cambio"))</f>
+        <v>Sin cambio</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>Incremento</v>
+      </c>
+      <c r="D4">
+        <f>_xlfn.XLOOKUP(A4,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)-_xlfn.XLOOKUP(B4,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)</f>
+        <v>-3</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="1"/>
+        <v>Más 3 niveles</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>Decremento</v>
+      </c>
+      <c r="D5">
+        <f>_xlfn.XLOOKUP(A5,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)-_xlfn.XLOOKUP(B5,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="1"/>
+        <v>Menos 1 nivel</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>Decremento</v>
+      </c>
+      <c r="D6">
+        <f>_xlfn.XLOOKUP(A6,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)-_xlfn.XLOOKUP(B6,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="1"/>
+        <v>Menos 2 niveles</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>Incremento</v>
+      </c>
+      <c r="D7">
+        <f>_xlfn.XLOOKUP(A7,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)-_xlfn.XLOOKUP(B7,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)</f>
+        <v>-3</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="1"/>
+        <v>Más 3 niveles</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>Sin cambio</v>
+      </c>
+      <c r="D8">
+        <f>_xlfn.XLOOKUP(A8,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)-_xlfn.XLOOKUP(B8,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="1"/>
+        <v>Sin cambio</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>Sin cambio</v>
+      </c>
+      <c r="D9">
+        <f>_xlfn.XLOOKUP(A9,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)-_xlfn.XLOOKUP(B9,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="1"/>
+        <v>Sin cambio</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>Sin cambio</v>
+      </c>
+      <c r="D10">
+        <f>_xlfn.XLOOKUP(A10,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)-_xlfn.XLOOKUP(B10,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="1"/>
+        <v>Sin cambio</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>Sin cambio</v>
+      </c>
+      <c r="D11">
+        <f>_xlfn.XLOOKUP(A11,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)-_xlfn.XLOOKUP(B11,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="1"/>
+        <v>Sin cambio</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11">
+        <v>11</v>
+      </c>
+      <c r="I11" s="7">
+        <f>GETPIVOTDATA("Valor",$G$8,"Valor","Sin cambio")/GETPIVOTDATA("Valor",$G$8)</f>
+        <v>0.61111111111111116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>Sin cambio</v>
+      </c>
+      <c r="D12">
+        <f>_xlfn.XLOOKUP(A12,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)-_xlfn.XLOOKUP(B12,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="1"/>
+        <v>Sin cambio</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>Decremento</v>
+      </c>
+      <c r="D13">
+        <f>_xlfn.XLOOKUP(A13,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)-_xlfn.XLOOKUP(B13,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="1"/>
+        <v>Menos 1 nivel</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>Sin cambio</v>
+      </c>
+      <c r="D14">
+        <f>_xlfn.XLOOKUP(A14,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)-_xlfn.XLOOKUP(B14,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="1"/>
+        <v>Sin cambio</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>Incremento</v>
+      </c>
+      <c r="D15">
+        <f>_xlfn.XLOOKUP(A15,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)-_xlfn.XLOOKUP(B15,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)</f>
+        <v>-1</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="1"/>
+        <v>Más 1 nivel</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="I15" s="9" t="str">
+        <f>A1</f>
+        <v>Nivel de disgusto (antes)</v>
+      </c>
+      <c r="J15" s="9" t="str">
+        <f>B1</f>
+        <v>Nivel de disgusto (después)</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>Sin cambio</v>
+      </c>
+      <c r="D16">
+        <f>_xlfn.XLOOKUP(A16,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)-_xlfn.XLOOKUP(B16,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="1"/>
+        <v>Sin cambio</v>
+      </c>
+      <c r="G16" t="s">
+        <v>99</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16">
+        <f>COUNTIF($A$2:$A$19,H16)</f>
+        <v>12</v>
+      </c>
+      <c r="J16">
+        <f>COUNTIF($B$2:$B$19,H16)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>Sin cambio</v>
+      </c>
+      <c r="D17">
+        <f>_xlfn.XLOOKUP(A17,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)-_xlfn.XLOOKUP(B17,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="1"/>
+        <v>Sin cambio</v>
+      </c>
+      <c r="G17" t="s">
+        <v>76</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17">
+        <f t="shared" ref="I17:I20" si="2">COUNTIF($A$2:$A$19,H17)</f>
+        <v>5</v>
+      </c>
+      <c r="J17">
+        <f t="shared" ref="J17:J20" si="3">COUNTIF($B$2:$B$19,H17)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>Sin cambio</v>
+      </c>
+      <c r="D18">
+        <f>_xlfn.XLOOKUP(A18,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)-_xlfn.XLOOKUP(B18,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="1"/>
+        <v>Sin cambio</v>
+      </c>
+      <c r="G18" t="s">
+        <v>59</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="str">
+        <f>IF(A19&lt;B19,"Incremento",IF(A19&gt;B19,"Decremento","Sin cambio"))</f>
+        <v>Sin cambio</v>
+      </c>
+      <c r="D19">
+        <f>_xlfn.XLOOKUP(A19,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)-_xlfn.XLOOKUP(B19,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E19" t="str">
+        <f>IF(C19="Incremento", IF(ABS(D19)=1, CONCATENATE("Más ", ABS(D19), " nivel"), CONCATENATE("Más ", ABS(D19), " niveles")),IF(C19="Decremento",IF(D19=1, CONCATENATE("Menos ", D19, " nivel"), CONCATENATE("Menos ", D19, " niveles")), "Sin cambio"))</f>
+        <v>Sin cambio</v>
+      </c>
+      <c r="G19" t="s">
+        <v>60</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>100</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I21">
+        <f>SUM(I16:I20)</f>
+        <v>18</v>
+      </c>
+      <c r="J21">
+        <f>SUM(J16:J20)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I24" s="7"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I25" s="7"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I26" s="7"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I27" s="7"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G29" s="6"/>
+    </row>
+    <row r="39" spans="12:12" ht="13" x14ac:dyDescent="0.3">
+      <c r="L39" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7E5F949-0771-4429-A968-451087E11F05}">
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView topLeftCell="E8" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -26180,7 +26778,7 @@
     <col min="5" max="8" width="9.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -26208,8 +26806,25 @@
       <c r="I1" s="9" t="s">
         <v>17</v>
       </c>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9" t="s">
+        <v>116</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -26217,834 +26832,857 @@
         <v>48</v>
       </c>
       <c r="C2" s="9">
+        <f>IF(AND(ISNUMBER(FIND(C$1,$A2)), ISNUMBER(FIND(C$1,$B2))), 3, IF(ISNUMBER(FIND(C$1,$A2)), 1, IF(ISNUMBER(FIND(C$1,$B2)), 2, 0)))</f>
         <v>0</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="9">
+        <f>IF(AND(ISNUMBER(FIND(D$1,$A2)), ISNUMBER(FIND(D$1,$B2))), 3, IF(ISNUMBER(FIND(D$1,$A2)), 1, IF(ISNUMBER(FIND(D$1,$B2)), 2, 0)))</f>
         <v>3</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="9">
+        <f t="shared" ref="E2:I17" si="0">IF(AND(ISNUMBER(FIND(E$1,$A2)), ISNUMBER(FIND(E$1,$B2))), 3, IF(ISNUMBER(FIND(E$1,$A2)), 1, IF(ISNUMBER(FIND(E$1,$B2)), 2, 0)))</f>
         <v>3</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="9">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="9">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I2" s="9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="L2">
+        <f>COUNTIF(C2:C19,0)</f>
+        <v>18</v>
+      </c>
+      <c r="M2">
+        <f>COUNTIF(C2:C19,1)</f>
         <v>0</v>
       </c>
-      <c r="M2" s="9" t="s">
-        <v>86</v>
+      <c r="N2">
+        <f>COUNTIF(C2:C19,2)</f>
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <f>COUNTIF(C2:C19,3)</f>
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <f>M2+N2+O2</f>
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <f>SUM(L2:O2)</f>
+        <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="9">
+        <f>IF(AND(ISNUMBER(FIND(C$1,$A3)), ISNUMBER(FIND(C$1,$B3))), 3, IF(ISNUMBER(FIND(C$1,$A3)), 1, IF(ISNUMBER(FIND(C$1,$B3)), 2, 0)))</f>
         <v>0</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="9">
+        <f>IF(AND(ISNUMBER(FIND(D$1,$A3)), ISNUMBER(FIND(D$1,$B3))), 3, IF(ISNUMBER(FIND(D$1,$A3)), 1, IF(ISNUMBER(FIND(D$1,$B3)), 2, 0)))</f>
         <v>2</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="9">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="9">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>111</v>
+      <c r="K3" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="L3">
+        <f>COUNTIF(D2:D19,0)</f>
+        <v>2</v>
+      </c>
+      <c r="M3" s="16">
+        <f>COUNTIF(D2:D19,1)</f>
+        <v>4</v>
+      </c>
+      <c r="N3" s="16">
+        <f>COUNTIF(D2:D19,2)</f>
+        <v>6</v>
+      </c>
+      <c r="O3" s="16">
+        <f>COUNTIF(D2:D19,3)</f>
+        <v>6</v>
+      </c>
+      <c r="P3">
+        <f>M3+N3+O3</f>
+        <v>16</v>
+      </c>
+      <c r="Q3">
+        <f>SUM(L3:O3)</f>
+        <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="9">
+        <f>IF(AND(ISNUMBER(FIND(C$1,$A4)), ISNUMBER(FIND(C$1,$B4))), 3, IF(ISNUMBER(FIND(C$1,$A4)), 1, IF(ISNUMBER(FIND(C$1,$B4)), 2, 0)))</f>
         <v>0</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="9">
+        <f>IF(AND(ISNUMBER(FIND(D$1,$A4)), ISNUMBER(FIND(D$1,$B4))), 3, IF(ISNUMBER(FIND(D$1,$A4)), 1, IF(ISNUMBER(FIND(D$1,$B4)), 2, 0)))</f>
         <v>2</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="9">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="9">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>112</v>
+      <c r="K4" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="L4">
+        <f>COUNTIF(E2:E19,0)</f>
+        <v>10</v>
+      </c>
+      <c r="M4">
+        <f>COUNTIF(E2:E19,1)</f>
+        <v>1</v>
+      </c>
+      <c r="N4" s="16">
+        <f>COUNTIF(E2:E19,2)</f>
+        <v>4</v>
+      </c>
+      <c r="O4" s="16">
+        <f>COUNTIF(E2:E19,3)</f>
+        <v>3</v>
+      </c>
+      <c r="P4">
+        <f>M4+N4+O4</f>
+        <v>8</v>
+      </c>
+      <c r="Q4">
+        <f>SUM(L4:O4)</f>
+        <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="9">
+        <f>IF(AND(ISNUMBER(FIND(C$1,$A5)), ISNUMBER(FIND(C$1,$B5))), 3, IF(ISNUMBER(FIND(C$1,$A5)), 1, IF(ISNUMBER(FIND(C$1,$B5)), 2, 0)))</f>
         <v>0</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="9">
+        <f>IF(AND(ISNUMBER(FIND(D$1,$A5)), ISNUMBER(FIND(D$1,$B5))), 3, IF(ISNUMBER(FIND(D$1,$A5)), 1, IF(ISNUMBER(FIND(D$1,$B5)), 2, 0)))</f>
         <v>2</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="9">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>113</v>
+      <c r="K5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5">
+        <f>COUNTIF(F2:F19,0)</f>
+        <v>11</v>
+      </c>
+      <c r="M5" s="16">
+        <f>COUNTIF(F2:F19,1)</f>
+        <v>4</v>
+      </c>
+      <c r="N5">
+        <f>COUNTIF(F2:F19,2)</f>
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <f>COUNTIF(F2:F19,3)</f>
+        <v>2</v>
+      </c>
+      <c r="P5">
+        <f>M5+N5+O5</f>
+        <v>7</v>
+      </c>
+      <c r="Q5">
+        <f>SUM(L5:O5)</f>
+        <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="9">
+        <f>IF(AND(ISNUMBER(FIND(C$1,$A6)), ISNUMBER(FIND(C$1,$B6))), 3, IF(ISNUMBER(FIND(C$1,$A6)), 1, IF(ISNUMBER(FIND(C$1,$B6)), 2, 0)))</f>
         <v>0</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="9">
+        <f>IF(AND(ISNUMBER(FIND(D$1,$A6)), ISNUMBER(FIND(D$1,$B6))), 3, IF(ISNUMBER(FIND(D$1,$A6)), 1, IF(ISNUMBER(FIND(D$1,$B6)), 2, 0)))</f>
         <v>1</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="9">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="9">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
+      <c r="K6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6">
+        <f>COUNTIF(G2:G19,0)</f>
+        <v>9</v>
+      </c>
+      <c r="M6" s="16">
+        <f>COUNTIF(G2:G19,1)</f>
+        <v>4</v>
+      </c>
+      <c r="N6">
+        <f>COUNTIF(G2:G19,2)</f>
+        <v>1</v>
+      </c>
+      <c r="O6" s="16">
+        <f>COUNTIF(G2:G19,3)</f>
+        <v>4</v>
+      </c>
+      <c r="P6">
+        <f>M6+N6+O6</f>
+        <v>9</v>
+      </c>
+      <c r="Q6">
+        <f>SUM(L6:O6)</f>
+        <v>18</v>
+      </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="9">
+        <f>IF(AND(ISNUMBER(FIND(C$1,$A7)), ISNUMBER(FIND(C$1,$B7))), 3, IF(ISNUMBER(FIND(C$1,$A7)), 1, IF(ISNUMBER(FIND(C$1,$B7)), 2, 0)))</f>
         <v>0</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="9">
+        <f>IF(AND(ISNUMBER(FIND(D$1,$A7)), ISNUMBER(FIND(D$1,$B7))), 3, IF(ISNUMBER(FIND(D$1,$A7)), 1, IF(ISNUMBER(FIND(D$1,$B7)), 2, 0)))</f>
         <v>3</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="9">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="9">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O7" s="9"/>
+      <c r="K7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7">
+        <f>COUNTIF(H2:H19,0)</f>
+        <v>12</v>
+      </c>
+      <c r="M7" s="16">
+        <f>COUNTIF(H2:H19,1)</f>
+        <v>5</v>
+      </c>
+      <c r="N7">
+        <f>COUNTIF(H2:H19,2)</f>
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <f>COUNTIF(H2:H19,3)</f>
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <f>M7+N7+O7</f>
+        <v>6</v>
+      </c>
+      <c r="Q7">
+        <f>SUM(L7:O7)</f>
+        <v>18</v>
+      </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="9">
+        <f>IF(AND(ISNUMBER(FIND(C$1,$A8)), ISNUMBER(FIND(C$1,$B8))), 3, IF(ISNUMBER(FIND(C$1,$A8)), 1, IF(ISNUMBER(FIND(C$1,$B8)), 2, 0)))</f>
         <v>0</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="9">
+        <f>IF(AND(ISNUMBER(FIND(D$1,$A8)), ISNUMBER(FIND(D$1,$B8))), 3, IF(ISNUMBER(FIND(D$1,$A8)), 1, IF(ISNUMBER(FIND(D$1,$B8)), 2, 0)))</f>
         <v>0</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="9">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="9">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
+      <c r="K8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8">
+        <f>COUNTIF(I2:I19,0)</f>
+        <v>13</v>
+      </c>
+      <c r="M8">
+        <f>COUNTIF(I2:I19,1)</f>
+        <v>2</v>
+      </c>
+      <c r="N8">
+        <f>COUNTIF(I2:I19,2)</f>
+        <v>3</v>
+      </c>
+      <c r="O8">
+        <f>COUNTIF(I2:I19,3)</f>
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <f>M8+N8+O8</f>
+        <v>5</v>
+      </c>
+      <c r="Q8">
+        <f>SUM(L8:O8)</f>
+        <v>18</v>
+      </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="9">
+        <f>IF(AND(ISNUMBER(FIND(C$1,$A9)), ISNUMBER(FIND(C$1,$B9))), 3, IF(ISNUMBER(FIND(C$1,$A9)), 1, IF(ISNUMBER(FIND(C$1,$B9)), 2, 0)))</f>
         <v>0</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="9">
+        <f>IF(AND(ISNUMBER(FIND(D$1,$A9)), ISNUMBER(FIND(D$1,$B9))), 3, IF(ISNUMBER(FIND(D$1,$A9)), 1, IF(ISNUMBER(FIND(D$1,$B9)), 2, 0)))</f>
         <v>2</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="9">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="9">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="9">
+        <f>IF(AND(ISNUMBER(FIND(C$1,$A10)), ISNUMBER(FIND(C$1,$B10))), 3, IF(ISNUMBER(FIND(C$1,$A10)), 1, IF(ISNUMBER(FIND(C$1,$B10)), 2, 0)))</f>
         <v>0</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="9">
+        <f>IF(AND(ISNUMBER(FIND(D$1,$A10)), ISNUMBER(FIND(D$1,$B10))), 3, IF(ISNUMBER(FIND(D$1,$A10)), 1, IF(ISNUMBER(FIND(D$1,$B10)), 2, 0)))</f>
         <v>1</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="9">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="9">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="9">
+        <f>IF(AND(ISNUMBER(FIND(C$1,$A11)), ISNUMBER(FIND(C$1,$B11))), 3, IF(ISNUMBER(FIND(C$1,$A11)), 1, IF(ISNUMBER(FIND(C$1,$B11)), 2, 0)))</f>
         <v>0</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="9">
+        <f>IF(AND(ISNUMBER(FIND(D$1,$A11)), ISNUMBER(FIND(D$1,$B11))), 3, IF(ISNUMBER(FIND(D$1,$A11)), 1, IF(ISNUMBER(FIND(D$1,$B11)), 2, 0)))</f>
         <v>2</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="9">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="9">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>86</v>
+      </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="9">
+        <f>IF(AND(ISNUMBER(FIND(C$1,$A12)), ISNUMBER(FIND(C$1,$B12))), 3, IF(ISNUMBER(FIND(C$1,$A12)), 1, IF(ISNUMBER(FIND(C$1,$B12)), 2, 0)))</f>
         <v>0</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="9">
+        <f>IF(AND(ISNUMBER(FIND(D$1,$A12)), ISNUMBER(FIND(D$1,$B12))), 3, IF(ISNUMBER(FIND(D$1,$A12)), 1, IF(ISNUMBER(FIND(D$1,$B12)), 2, 0)))</f>
         <v>3</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="9">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>111</v>
+      </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="9">
+        <f>IF(AND(ISNUMBER(FIND(C$1,$A13)), ISNUMBER(FIND(C$1,$B13))), 3, IF(ISNUMBER(FIND(C$1,$A13)), 1, IF(ISNUMBER(FIND(C$1,$B13)), 2, 0)))</f>
         <v>0</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="9">
+        <f>IF(AND(ISNUMBER(FIND(D$1,$A13)), ISNUMBER(FIND(D$1,$B13))), 3, IF(ISNUMBER(FIND(D$1,$A13)), 1, IF(ISNUMBER(FIND(D$1,$B13)), 2, 0)))</f>
         <v>1</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="9">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="9">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>112</v>
+      </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="9">
+        <f>IF(AND(ISNUMBER(FIND(C$1,$A14)), ISNUMBER(FIND(C$1,$B14))), 3, IF(ISNUMBER(FIND(C$1,$A14)), 1, IF(ISNUMBER(FIND(C$1,$B14)), 2, 0)))</f>
         <v>0</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="9">
+        <f>IF(AND(ISNUMBER(FIND(D$1,$A14)), ISNUMBER(FIND(D$1,$B14))), 3, IF(ISNUMBER(FIND(D$1,$A14)), 1, IF(ISNUMBER(FIND(D$1,$B14)), 2, 0)))</f>
         <v>1</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="9">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="9">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="9">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>113</v>
+      </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="9">
+        <f>IF(AND(ISNUMBER(FIND(C$1,$A15)), ISNUMBER(FIND(C$1,$B15))), 3, IF(ISNUMBER(FIND(C$1,$A15)), 1, IF(ISNUMBER(FIND(C$1,$B15)), 2, 0)))</f>
         <v>0</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="9">
+        <f>IF(AND(ISNUMBER(FIND(D$1,$A15)), ISNUMBER(FIND(D$1,$B15))), 3, IF(ISNUMBER(FIND(D$1,$A15)), 1, IF(ISNUMBER(FIND(D$1,$B15)), 2, 0)))</f>
         <v>3</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="9">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="9">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="9">
+        <f>IF(AND(ISNUMBER(FIND(C$1,$A16)), ISNUMBER(FIND(C$1,$B16))), 3, IF(ISNUMBER(FIND(C$1,$A16)), 1, IF(ISNUMBER(FIND(C$1,$B16)), 2, 0)))</f>
         <v>0</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="9">
+        <f>IF(AND(ISNUMBER(FIND(D$1,$A16)), ISNUMBER(FIND(D$1,$B16))), 3, IF(ISNUMBER(FIND(D$1,$A16)), 1, IF(ISNUMBER(FIND(D$1,$B16)), 2, 0)))</f>
         <v>3</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="9">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="9">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="9">
+        <f>IF(AND(ISNUMBER(FIND(C$1,$A17)), ISNUMBER(FIND(C$1,$B17))), 3, IF(ISNUMBER(FIND(C$1,$A17)), 1, IF(ISNUMBER(FIND(C$1,$B17)), 2, 0)))</f>
         <v>0</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="9">
+        <f>IF(AND(ISNUMBER(FIND(D$1,$A17)), ISNUMBER(FIND(D$1,$B17))), 3, IF(ISNUMBER(FIND(D$1,$A17)), 1, IF(ISNUMBER(FIND(D$1,$B17)), 2, 0)))</f>
         <v>3</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="9">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="9">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="9">
+        <f>IF(AND(ISNUMBER(FIND(C$1,$A18)), ISNUMBER(FIND(C$1,$B18))), 3, IF(ISNUMBER(FIND(C$1,$A18)), 1, IF(ISNUMBER(FIND(C$1,$B18)), 2, 0)))</f>
         <v>0</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="9">
+        <f>IF(AND(ISNUMBER(FIND(D$1,$A18)), ISNUMBER(FIND(D$1,$B18))), 3, IF(ISNUMBER(FIND(D$1,$A18)), 1, IF(ISNUMBER(FIND(D$1,$B18)), 2, 0)))</f>
         <v>2</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="9">
+        <f t="shared" ref="E18:I19" si="1">IF(AND(ISNUMBER(FIND(E$1,$A18)), ISNUMBER(FIND(E$1,$B18))), 3, IF(ISNUMBER(FIND(E$1,$A18)), 1, IF(ISNUMBER(FIND(E$1,$B18)), 2, 0)))</f>
         <v>0</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="9">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="9">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="9">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="9">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="9">
+        <f>IF(AND(ISNUMBER(FIND(C$1,$A19)), ISNUMBER(FIND(C$1,$B19))), 3, IF(ISNUMBER(FIND(C$1,$A19)), 1, IF(ISNUMBER(FIND(C$1,$B19)), 2, 0)))</f>
         <v>0</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="9">
+        <f>IF(AND(ISNUMBER(FIND(D$1,$A19)), ISNUMBER(FIND(D$1,$B19))), 3, IF(ISNUMBER(FIND(D$1,$A19)), 1, IF(ISNUMBER(FIND(D$1,$B19)), 2, 0)))</f>
         <v>0</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="9">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="9">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="9">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="9">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="9">
+        <f t="shared" si="1"/>
         <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D21" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="K21" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C22" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="H22">
-        <f>COUNTIF(D2:D19,0)</f>
-        <v>2</v>
-      </c>
-      <c r="I22" s="16">
-        <f>COUNTIF(D2:D19,1)</f>
-        <v>4</v>
-      </c>
-      <c r="J22" s="16">
-        <f>COUNTIF(D2:D19,2)</f>
-        <v>6</v>
-      </c>
-      <c r="K22" s="16">
-        <f>COUNTIF(D2:D19,3)</f>
-        <v>6</v>
-      </c>
-      <c r="L22">
-        <f>I22+J22+K22</f>
-        <v>16</v>
-      </c>
-      <c r="M22">
-        <f>SUM(H22:K22)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C23" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D23">
-        <v>10</v>
-      </c>
-      <c r="E23">
-        <v>12</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="H23">
-        <f>COUNTIF(E2:E19,0)</f>
-        <v>10</v>
-      </c>
-      <c r="I23">
-        <f>COUNTIF(E2:E19,1)</f>
-        <v>1</v>
-      </c>
-      <c r="J23" s="16">
-        <f>COUNTIF(E2:E19,2)</f>
-        <v>4</v>
-      </c>
-      <c r="K23" s="16">
-        <f>COUNTIF(E2:E19,3)</f>
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <f t="shared" ref="L23:L28" si="0">I23+J23+K23</f>
-        <v>8</v>
-      </c>
-      <c r="M23">
-        <f t="shared" ref="M23:M28" si="1">SUM(H23:K23)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C24" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D24">
-        <v>4</v>
-      </c>
-      <c r="E24">
-        <v>7</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H24">
-        <f>COUNTIF(F2:F19,0)</f>
-        <v>11</v>
-      </c>
-      <c r="I24" s="16">
-        <f>COUNTIF(F2:F19,1)</f>
-        <v>4</v>
-      </c>
-      <c r="J24">
-        <f>COUNTIF(F2:F19,2)</f>
-        <v>1</v>
-      </c>
-      <c r="K24">
-        <f>COUNTIF(F2:F19,3)</f>
-        <v>2</v>
-      </c>
-      <c r="L24">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="M24">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C25" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25">
-        <v>6</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H25">
-        <f>COUNTIF(G2:G19,0)</f>
-        <v>9</v>
-      </c>
-      <c r="I25" s="16">
-        <f>COUNTIF(G2:G19,1)</f>
-        <v>4</v>
-      </c>
-      <c r="J25">
-        <f>COUNTIF(G2:G19,2)</f>
-        <v>1</v>
-      </c>
-      <c r="K25" s="16">
-        <f>COUNTIF(G2:G19,3)</f>
-        <v>4</v>
-      </c>
-      <c r="L25">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="M25">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C26" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26">
-        <v>8</v>
-      </c>
-      <c r="E26">
-        <v>5</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H26">
-        <f>COUNTIF(H2:H19,0)</f>
-        <v>12</v>
-      </c>
-      <c r="I26" s="16">
-        <f>COUNTIF(H2:H19,1)</f>
-        <v>5</v>
-      </c>
-      <c r="J26">
-        <f>COUNTIF(H2:H19,2)</f>
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <f>COUNTIF(H2:H19,3)</f>
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="M26">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C27" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27">
-        <v>6</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H27">
-        <f>COUNTIF(I2:I19,0)</f>
-        <v>13</v>
-      </c>
-      <c r="I27">
-        <f>COUNTIF(I2:I19,1)</f>
-        <v>2</v>
-      </c>
-      <c r="J27">
-        <f>COUNTIF(I2:I19,2)</f>
-        <v>3</v>
-      </c>
-      <c r="K27">
-        <f>COUNTIF(I2:I19,3)</f>
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="M27">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C28" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28">
-        <v>2</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="H28">
-        <f>COUNTIF(C2:C19,0)</f>
-        <v>18</v>
-      </c>
-      <c r="I28">
-        <f>COUNTIF(C2:C19,1)</f>
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <f>COUNTIF(C2:C19,2)</f>
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <f>COUNTIF(C2:C19,3)</f>
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <f t="shared" si="1"/>
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -27052,12 +27690,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952A64BD-36C4-4F06-8C82-28B6D3C1D2FD}">
   <dimension ref="A3:D28"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="77" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView zoomScale="77" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -28220,15 +28858,78 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29CE3665-D72F-4EE1-934C-ADF218A6A338}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:U20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17:XFD17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -29509,12 +30210,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE274363-258E-4306-99BB-FCA2497354EF}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="113" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -29569,7 +30270,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEBA2295-2352-4D9D-9C91-5BFC4AE83169}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -29603,7 +30304,7 @@
       <c r="A4" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4">
         <v>15</v>
       </c>
     </row>
@@ -29611,7 +30312,7 @@
       <c r="A5" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5">
         <v>1</v>
       </c>
     </row>
@@ -29619,7 +30320,7 @@
       <c r="A6" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6">
         <v>2</v>
       </c>
     </row>
@@ -29627,7 +30328,7 @@
       <c r="A7" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7">
         <v>18</v>
       </c>
     </row>
@@ -29637,25 +30338,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0887B578-C2C7-4BFD-AC78-96B0891EE891}">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView topLeftCell="I29" zoomScale="105" workbookViewId="0">
-      <selection activeCell="W7" sqref="W7"/>
+    <sheetView zoomScale="105" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.08984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>77</v>
       </c>
@@ -29666,1120 +30368,636 @@
         <v>79</v>
       </c>
       <c r="D1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" t="s">
         <v>80</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="str">
+        <f>IF(A2&lt;B2,"Incremento",IF(A2&gt;B2,"Decremento","Sin cambio"))</f>
+        <v>Decremento</v>
+      </c>
+      <c r="D2">
+        <f>_xlfn.XLOOKUP(A2,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)-_xlfn.XLOOKUP(B2,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="E2" t="str">
+        <f>IF(C2="Incremento", IF(ABS(D2)=1, CONCATENATE("Más ", ABS(D2), " nivel"), CONCATENATE("Más ", ABS(D2), " niveles")),IF(C2="Decremento",IF(D2=1, CONCATENATE("Menos ", D2, " nivel"), CONCATENATE("Menos ", D2, " niveles")), "Sin cambio"))</f>
+        <v>Menos 1 nivel</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="G2">
+      <c r="H2">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="str">
+        <f>IF(A3&lt;B3,"Incremento",IF(A3&gt;B3,"Decremento","Sin cambio"))</f>
+        <v>Sin cambio</v>
+      </c>
+      <c r="D3">
+        <f>_xlfn.XLOOKUP(A3,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)-_xlfn.XLOOKUP(B3,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E19" si="0">IF(C3="Incremento", IF(ABS(D3)=1, CONCATENATE("Más ", ABS(D3), " nivel"), CONCATENATE("Más ", ABS(D3), " niveles")),IF(C3="Decremento",IF(D3=1, CONCATENATE("Menos ", D3, " nivel"), CONCATENATE("Menos ", D3, " niveles")), "Sin cambio"))</f>
+        <v>Sin cambio</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="G3">
+      <c r="H3">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F4" s="6" t="s">
+      <c r="C4" t="str">
+        <f>IF(A4&lt;B4,"Incremento",IF(A4&gt;B4,"Decremento","Sin cambio"))</f>
+        <v>Decremento</v>
+      </c>
+      <c r="D4">
+        <f>_xlfn.XLOOKUP(A4,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)-_xlfn.XLOOKUP(B4,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>Menos 1 nivel</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F5" s="6" t="s">
+      <c r="C5" t="str">
+        <f>IF(A5&lt;B5,"Incremento",IF(A5&gt;B5,"Decremento","Sin cambio"))</f>
+        <v>Sin cambio</v>
+      </c>
+      <c r="D5">
+        <f>_xlfn.XLOOKUP(A5,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)-_xlfn.XLOOKUP(B5,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>Sin cambio</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" t="s">
-        <v>89</v>
+      <c r="C6" t="str">
+        <f>IF(A6&lt;B6,"Incremento",IF(A6&gt;B6,"Decremento","Sin cambio"))</f>
+        <v>Incremento</v>
+      </c>
+      <c r="D6">
+        <f>_xlfn.XLOOKUP(A6,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)-_xlfn.XLOOKUP(B6,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)</f>
+        <v>-1</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>Más 1 nivel</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D7" t="s">
-        <v>86</v>
+      <c r="C7" t="str">
+        <f>IF(A7&lt;B7,"Incremento",IF(A7&gt;B7,"Decremento","Sin cambio"))</f>
+        <v>Sin cambio</v>
+      </c>
+      <c r="D7">
+        <f>_xlfn.XLOOKUP(A7,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)-_xlfn.XLOOKUP(B7,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>Sin cambio</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D8" t="s">
-        <v>90</v>
-      </c>
-      <c r="F8" s="5" t="s">
+      <c r="C8" t="str">
+        <f>IF(A8&lt;B8,"Incremento",IF(A8&gt;B8,"Decremento","Sin cambio"))</f>
+        <v>Incremento</v>
+      </c>
+      <c r="D8">
+        <f>_xlfn.XLOOKUP(A8,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)-_xlfn.XLOOKUP(B8,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)</f>
+        <v>-2</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>Más 2 niveles</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C9" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" t="s">
-        <v>86</v>
-      </c>
-      <c r="F9" s="6" t="s">
+      <c r="C9" t="str">
+        <f>IF(A9&lt;B9,"Incremento",IF(A9&gt;B9,"Decremento","Sin cambio"))</f>
+        <v>Sin cambio</v>
+      </c>
+      <c r="D9">
+        <f>_xlfn.XLOOKUP(A9,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)-_xlfn.XLOOKUP(B9,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>Sin cambio</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>2</v>
       </c>
-      <c r="I9">
-        <v>2</v>
-      </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D10" t="s">
-        <v>90</v>
-      </c>
-      <c r="F10" s="6" t="s">
+      <c r="C10" t="str">
+        <f>IF(A10&lt;B10,"Incremento",IF(A10&gt;B10,"Decremento","Sin cambio"))</f>
+        <v>Incremento</v>
+      </c>
+      <c r="D10">
+        <f>_xlfn.XLOOKUP(A10,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)-_xlfn.XLOOKUP(B10,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)</f>
+        <v>-2</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>Más 2 niveles</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>4</v>
       </c>
-      <c r="I10">
-        <v>4</v>
-      </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D11" t="s">
-        <v>91</v>
-      </c>
-      <c r="F11" s="6" t="s">
+      <c r="C11" t="str">
+        <f>IF(A11&lt;B11,"Incremento",IF(A11&gt;B11,"Decremento","Sin cambio"))</f>
+        <v>Decremento</v>
+      </c>
+      <c r="D11">
+        <f>_xlfn.XLOOKUP(A11,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)-_xlfn.XLOOKUP(B11,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>Menos 2 niveles</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>7</v>
       </c>
-      <c r="I11">
-        <v>7</v>
-      </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C12" t="s">
-        <v>86</v>
-      </c>
-      <c r="D12" t="s">
-        <v>86</v>
-      </c>
-      <c r="F12" s="6" t="s">
+      <c r="C12" t="str">
+        <f>IF(A12&lt;B12,"Incremento",IF(A12&gt;B12,"Decremento","Sin cambio"))</f>
+        <v>Sin cambio</v>
+      </c>
+      <c r="D12">
+        <f>_xlfn.XLOOKUP(A12,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)-_xlfn.XLOOKUP(B12,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>Sin cambio</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>2</v>
       </c>
-      <c r="I12">
-        <v>2</v>
-      </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C13" t="s">
-        <v>87</v>
-      </c>
-      <c r="D13" t="s">
-        <v>89</v>
-      </c>
-      <c r="F13" s="6" t="s">
+      <c r="C13" t="str">
+        <f>IF(A13&lt;B13,"Incremento",IF(A13&gt;B13,"Decremento","Sin cambio"))</f>
+        <v>Incremento</v>
+      </c>
+      <c r="D13">
+        <f>_xlfn.XLOOKUP(A13,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)-_xlfn.XLOOKUP(B13,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)</f>
+        <v>-1</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>Más 1 nivel</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>3</v>
       </c>
-      <c r="I13">
-        <v>3</v>
-      </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D14" t="s">
-        <v>90</v>
-      </c>
-      <c r="F14" s="6" t="s">
+      <c r="C14" t="str">
+        <f>IF(A14&lt;B14,"Incremento",IF(A14&gt;B14,"Decremento","Sin cambio"))</f>
+        <v>Incremento</v>
+      </c>
+      <c r="D14">
+        <f>_xlfn.XLOOKUP(A14,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)-_xlfn.XLOOKUP(B14,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)</f>
+        <v>-2</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>Más 2 niveles</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C15" t="s">
-        <v>86</v>
-      </c>
-      <c r="D15" t="s">
-        <v>86</v>
+      <c r="C15" t="str">
+        <f>IF(A15&lt;B15,"Incremento",IF(A15&gt;B15,"Decremento","Sin cambio"))</f>
+        <v>Sin cambio</v>
+      </c>
+      <c r="D15">
+        <f>_xlfn.XLOOKUP(A15,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)-_xlfn.XLOOKUP(B15,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>Sin cambio</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C16" t="s">
-        <v>86</v>
-      </c>
-      <c r="D16" t="s">
-        <v>86</v>
-      </c>
-      <c r="F16" s="5" t="s">
+      <c r="C16" t="str">
+        <f>IF(A16&lt;B16,"Incremento",IF(A16&gt;B16,"Decremento","Sin cambio"))</f>
+        <v>Sin cambio</v>
+      </c>
+      <c r="D16">
+        <f>_xlfn.XLOOKUP(A16,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)-_xlfn.XLOOKUP(B16,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>Sin cambio</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D17" t="s">
-        <v>88</v>
-      </c>
-      <c r="F17" s="6" t="s">
+      <c r="C17" t="str">
+        <f>IF(A17&lt;B17,"Incremento",IF(A17&gt;B17,"Decremento","Sin cambio"))</f>
+        <v>Decremento</v>
+      </c>
+      <c r="D17">
+        <f>_xlfn.XLOOKUP(A17,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)-_xlfn.XLOOKUP(B17,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>Menos 1 nivel</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>1</v>
       </c>
-      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C18" t="s">
-        <v>85</v>
-      </c>
-      <c r="D18" t="s">
-        <v>88</v>
-      </c>
-      <c r="F18" s="6" t="s">
+      <c r="C18" t="str">
+        <f>IF(A18&lt;B18,"Incremento",IF(A18&gt;B18,"Decremento","Sin cambio"))</f>
+        <v>Decremento</v>
+      </c>
+      <c r="D18">
+        <f>_xlfn.XLOOKUP(A18,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)-_xlfn.XLOOKUP(B18,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>Menos 1 nivel</v>
+      </c>
+      <c r="G18" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>4</v>
       </c>
-      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C19" t="s">
-        <v>85</v>
-      </c>
-      <c r="D19" t="s">
-        <v>91</v>
-      </c>
-      <c r="F19" s="6" t="s">
+      <c r="C19" t="str">
+        <f>IF(A19&lt;B19,"Incremento",IF(A19&gt;B19,"Decremento","Sin cambio"))</f>
+        <v>Decremento</v>
+      </c>
+      <c r="D19">
+        <f>_xlfn.XLOOKUP(A19,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)-_xlfn.XLOOKUP(B19,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>Menos 2 niveles</v>
+      </c>
+      <c r="G19" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>7</v>
       </c>
-      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F20" s="6" t="s">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G20" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>4</v>
       </c>
-      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F21" s="6" t="s">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G21" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>2</v>
       </c>
-      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F22" s="6" t="s">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G22" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>18</v>
       </c>
-      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F24" s="5" t="s">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G24" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F25" s="6" t="s">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G25" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F26" s="6" t="s">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G26" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F27" s="6" t="s">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G27" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F28" s="6" t="s">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G28" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F29" s="6" t="s">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G29" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G31" s="6" t="s">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H31" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="H31" s="9" t="s">
+      <c r="I31" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="I31" s="9" t="s">
+      <c r="J31" s="9" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F32" t="s">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G32" t="s">
         <v>99</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="H32" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H32">
-        <f>COUNTIF($A$2:$A$19,G32)</f>
+      <c r="I32">
+        <f>COUNTIF($A$2:$A$19,H32)</f>
         <v>1</v>
       </c>
-      <c r="I32">
-        <f>COUNTIF($B$2:$B$19,G32)</f>
+      <c r="J32">
+        <f>COUNTIF($B$2:$B$19,H32)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F33" t="s">
+    <row r="33" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G33" t="s">
         <v>76</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="H33" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H33">
-        <f t="shared" ref="H33:H36" si="0">COUNTIF($A$2:$A$19,G33)</f>
+      <c r="I33">
+        <f t="shared" ref="I33:I36" si="1">COUNTIF($A$2:$A$19,H33)</f>
         <v>4</v>
       </c>
-      <c r="I33">
-        <f t="shared" ref="I33:I36" si="1">COUNTIF($B$2:$B$19,G33)</f>
+      <c r="J33">
+        <f t="shared" ref="J33:J36" si="2">COUNTIF($B$2:$B$19,H33)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F34" t="s">
+    <row r="34" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G34" t="s">
         <v>59</v>
       </c>
-      <c r="G34" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H34">
-        <f t="shared" si="0"/>
+      <c r="H34" s="6" t="s">
         <v>7</v>
       </c>
       <c r="I34">
         <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F35" t="s">
+    <row r="35" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G35" t="s">
         <v>60</v>
       </c>
-      <c r="G35" s="6" t="s">
+      <c r="H35" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="H35">
-        <f t="shared" si="0"/>
-        <v>4</v>
       </c>
       <c r="I35">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
+      <c r="J35">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
     </row>
-    <row r="36" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F36" t="s">
+    <row r="36" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G36" t="s">
         <v>100</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="H36" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="H36">
-        <f t="shared" si="0"/>
-        <v>2</v>
       </c>
       <c r="I36">
         <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CE95112-A1A8-428A-AEDD-0B5567F11341}">
-  <dimension ref="A1:K39"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E24" zoomScale="68" workbookViewId="0">
-      <selection activeCell="U37" sqref="U37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="6" max="6" width="14.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.08984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.36328125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="G2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="G3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="G4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D5" t="s">
-        <v>88</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="G5">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D8" t="s">
-        <v>89</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" t="s">
-        <v>86</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D10" t="s">
-        <v>91</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="G10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D11" t="s">
-        <v>88</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="G11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>86</v>
-      </c>
-      <c r="D12" t="s">
-        <v>86</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="G12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>85</v>
-      </c>
-      <c r="D13" t="s">
-        <v>88</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" t="s">
-        <v>86</v>
-      </c>
-      <c r="D14" t="s">
-        <v>86</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="G14">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" t="s">
-        <v>87</v>
-      </c>
-      <c r="D15" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" t="s">
-        <v>88</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G16" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D17" t="s">
-        <v>88</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17">
-        <v>2</v>
-      </c>
-      <c r="H17" s="7">
-        <f>GETPIVOTDATA("Nivel de estrés Antes",$F$16,"Nivel de estrés Antes","1. Muy bajo")/GETPIVOTDATA("Nivel de estrés Antes",$F$16)</f>
-        <v>0.1111111111111111</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" t="s">
-        <v>86</v>
-      </c>
-      <c r="D18" t="s">
-        <v>86</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18">
-        <v>5</v>
-      </c>
-      <c r="H18" s="7">
-        <f>GETPIVOTDATA("Nivel de estrés Antes",$F$16,"Nivel de estrés Antes","2. Bajo")/GETPIVOTDATA("Nivel de estrés Antes",$F$16)</f>
-        <v>0.27777777777777779</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" t="s">
-        <v>87</v>
-      </c>
-      <c r="D19" t="s">
-        <v>89</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19">
-        <v>7</v>
-      </c>
-      <c r="H19" s="7">
-        <f>GETPIVOTDATA("Nivel de estrés Antes",$F$16,"Nivel de estrés Antes","3. Medio")/GETPIVOTDATA("Nivel de estrés Antes",$F$16)</f>
-        <v>0.3888888888888889</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F20" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G20">
-        <v>4</v>
-      </c>
-      <c r="H20" s="7">
-        <f>GETPIVOTDATA("Nivel de estrés Antes",$F$16,"Nivel de estrés Antes","4. Alto")/GETPIVOTDATA("Nivel de estrés Antes",$F$16)</f>
-        <v>0.22222222222222221</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F21" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="G21">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F23" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G23" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F24" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G24">
-        <v>11</v>
-      </c>
-      <c r="H24" s="7">
-        <f>GETPIVOTDATA("Nivel de estrés Después",$F$23,"Nivel de estrés Después","2. Bajo")/GETPIVOTDATA("Nivel de estrés Después",$F$23)</f>
-        <v>0.61111111111111116</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F25" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G25">
-        <v>3</v>
-      </c>
-      <c r="H25" s="7">
-        <f>GETPIVOTDATA("Nivel de estrés Después",$F$23,"Nivel de estrés Después","3. Medio")/GETPIVOTDATA("Nivel de estrés Después",$F$23)</f>
-        <v>0.16666666666666666</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F26" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G26">
-        <v>3</v>
-      </c>
-      <c r="H26" s="7">
-        <f>GETPIVOTDATA("Nivel de estrés Después",$F$23,"Nivel de estrés Después","4. Alto")/GETPIVOTDATA("Nivel de estrés Después",$F$23)</f>
-        <v>0.16666666666666666</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F27" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-      <c r="H27" s="7">
-        <f>GETPIVOTDATA("Nivel de estrés Después",$F$23,"Nivel de estrés Después","5. Muy alto")/GETPIVOTDATA("Nivel de estrés Después",$F$23)</f>
-        <v>5.5555555555555552E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F28" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="G28">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F29" s="6"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F30" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="G30" t="s">
-        <v>97</v>
-      </c>
-      <c r="H30" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E31" t="s">
-        <v>99</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G31">
-        <f>COUNTIF($A$2:$A$20,F31)</f>
-        <v>2</v>
-      </c>
-      <c r="H31">
-        <f>COUNTIF($B$2:$B$19,F31)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E32" t="s">
-        <v>76</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G32">
-        <f t="shared" ref="G32:G35" si="0">COUNTIF($A$2:$A$20,F32)</f>
-        <v>5</v>
-      </c>
-      <c r="H32">
-        <f t="shared" ref="H32:H35" si="1">COUNTIF($B$2:$B$19,F32)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E33" t="s">
-        <v>59</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="H33">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E34" t="s">
-        <v>60</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="H34">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E35" t="s">
-        <v>100</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="5:11" ht="13" x14ac:dyDescent="0.3">
-      <c r="K39" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30788,948 +31006,1272 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F04F22D-18E8-4681-BE53-98D06D17B427}">
-  <dimension ref="A1:K39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CE95112-A1A8-428A-AEDD-0B5567F11341}">
+  <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView zoomScale="74" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView zoomScale="68" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.08984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="C1" t="s">
         <v>79</v>
       </c>
       <c r="D1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" t="s">
         <v>80</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="str">
+        <f>IF(A2&lt;B2,"Incremento",IF(A2&gt;B2,"Decremento","Sin cambio"))</f>
+        <v>Incremento</v>
+      </c>
+      <c r="D2">
+        <f>_xlfn.XLOOKUP(A2,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)-_xlfn.XLOOKUP(B2,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)</f>
+        <v>-1</v>
+      </c>
+      <c r="E2" t="str">
+        <f>IF(C2="Incremento", IF(ABS(D2)=1, CONCATENATE("Más ", ABS(D2), " nivel"), CONCATENATE("Más ", ABS(D2), " niveles")),IF(C2="Decremento",IF(D2=1, CONCATENATE("Menos ", D2, " nivel"), CONCATENATE("Menos ", D2, " niveles")), "Sin cambio"))</f>
+        <v>Más 1 nivel</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="G2">
-        <v>4</v>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C19" si="0">IF(A3&lt;B3,"Incremento",IF(A3&gt;B3,"Decremento","Sin cambio"))</f>
+        <v>Sin cambio</v>
+      </c>
+      <c r="D3">
+        <f>_xlfn.XLOOKUP(A3,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)-_xlfn.XLOOKUP(B3,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E19" si="1">IF(C3="Incremento", IF(ABS(D3)=1, CONCATENATE("Más ", ABS(D3), " nivel"), CONCATENATE("Más ", ABS(D3), " niveles")),IF(C3="Decremento",IF(D3=1, CONCATENATE("Menos ", D3, " nivel"), CONCATENATE("Menos ", D3, " niveles")), "Sin cambio"))</f>
+        <v>Sin cambio</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3">
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="G3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>Incremento</v>
+      </c>
+      <c r="D4">
+        <f>_xlfn.XLOOKUP(A4,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)-_xlfn.XLOOKUP(B4,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)</f>
+        <v>-2</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="1"/>
+        <v>Más 2 niveles</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="G4">
+      <c r="H4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>Decremento</v>
+      </c>
+      <c r="D5">
+        <f>_xlfn.XLOOKUP(A5,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)-_xlfn.XLOOKUP(B5,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="1"/>
+        <v>Menos 1 nivel</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>Sin cambio</v>
+      </c>
+      <c r="D6">
+        <f>_xlfn.XLOOKUP(A6,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)-_xlfn.XLOOKUP(B6,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="1"/>
+        <v>Sin cambio</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>Sin cambio</v>
+      </c>
+      <c r="D7">
+        <f>_xlfn.XLOOKUP(A7,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)-_xlfn.XLOOKUP(B7,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="1"/>
+        <v>Sin cambio</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>Incremento</v>
+      </c>
+      <c r="D8">
+        <f>_xlfn.XLOOKUP(A8,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)-_xlfn.XLOOKUP(B8,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)</f>
+        <v>-1</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="1"/>
+        <v>Más 1 nivel</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>Sin cambio</v>
+      </c>
+      <c r="D9">
+        <f>_xlfn.XLOOKUP(A9,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)-_xlfn.XLOOKUP(B9,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="1"/>
+        <v>Sin cambio</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>Decremento</v>
+      </c>
+      <c r="D10">
+        <f>_xlfn.XLOOKUP(A10,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)-_xlfn.XLOOKUP(B10,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)</f>
         <v>2</v>
       </c>
+      <c r="E10" t="str">
+        <f t="shared" si="1"/>
+        <v>Menos 2 niveles</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D5" t="s">
-        <v>88</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="G5">
-        <v>18</v>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>Decremento</v>
+      </c>
+      <c r="D11">
+        <f>_xlfn.XLOOKUP(A11,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)-_xlfn.XLOOKUP(B11,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="1"/>
+        <v>Menos 1 nivel</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11">
+        <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D8" t="s">
-        <v>86</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" t="s">
-        <v>86</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="G9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>86</v>
-      </c>
-      <c r="D10" t="s">
-        <v>86</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="G10">
-        <v>12</v>
-      </c>
-      <c r="H10" s="7">
-        <f>GETPIVOTDATA("Valor",$F$8,"Valor","Sin cambio")/GETPIVOTDATA("Valor",$F$8)</f>
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D11" t="s">
-        <v>86</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C12" t="s">
-        <v>86</v>
-      </c>
-      <c r="D12" t="s">
-        <v>86</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="G12">
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>Sin cambio</v>
+      </c>
+      <c r="D12">
+        <f>_xlfn.XLOOKUP(A12,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)-_xlfn.XLOOKUP(B12,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="1"/>
+        <v>Sin cambio</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="H12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>Decremento</v>
+      </c>
+      <c r="D13">
+        <f>_xlfn.XLOOKUP(A13,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)-_xlfn.XLOOKUP(B13,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)</f>
         <v>1</v>
       </c>
+      <c r="E13" t="str">
+        <f t="shared" si="1"/>
+        <v>Menos 1 nivel</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
-        <v>85</v>
-      </c>
-      <c r="D13" t="s">
-        <v>88</v>
-      </c>
-      <c r="F13" s="6" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>Sin cambio</v>
+      </c>
+      <c r="D14">
+        <f>_xlfn.XLOOKUP(A14,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)-_xlfn.XLOOKUP(B14,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="1"/>
+        <v>Sin cambio</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="G13">
+      <c r="H14">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" t="s">
-        <v>86</v>
-      </c>
-      <c r="D14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" t="s">
-        <v>86</v>
-      </c>
-      <c r="D15" t="s">
-        <v>86</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="H15" s="9" t="str">
-        <f>A1</f>
-        <v>Nivel de enojo (antes)</v>
-      </c>
-      <c r="I15" s="9" t="str">
-        <f>B1</f>
-        <v>Nivel de enojo (después)</v>
+        <v>8</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>Incremento</v>
+      </c>
+      <c r="D15">
+        <f>_xlfn.XLOOKUP(A15,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)-_xlfn.XLOOKUP(B15,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)</f>
+        <v>-1</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="1"/>
+        <v>Más 1 nivel</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" t="s">
-        <v>86</v>
-      </c>
-      <c r="D16" t="s">
-        <v>86</v>
-      </c>
-      <c r="F16" t="s">
-        <v>99</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16">
-        <f>COUNTIF($A$2:$A$19,G16)</f>
-        <v>13</v>
-      </c>
-      <c r="I16">
-        <f>COUNTIF($B$2:$B$19,G16)</f>
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>Decremento</v>
+      </c>
+      <c r="D16">
+        <f>_xlfn.XLOOKUP(A16,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)-_xlfn.XLOOKUP(B16,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="1"/>
+        <v>Menos 1 nivel</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>Decremento</v>
+      </c>
+      <c r="D17">
+        <f>_xlfn.XLOOKUP(A17,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)-_xlfn.XLOOKUP(B17,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="1"/>
+        <v>Menos 1 nivel</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" t="s">
-        <v>86</v>
-      </c>
-      <c r="F17" t="s">
-        <v>76</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>8</v>
-      </c>
       <c r="H17">
-        <f t="shared" ref="H17:H20" si="0">COUNTIF($A$2:$A$19,G17)</f>
-        <v>5</v>
-      </c>
-      <c r="I17">
-        <f t="shared" ref="I17:I20" si="1">COUNTIF($B$2:$B$19,G17)</f>
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="I17" s="7">
+        <f>GETPIVOTDATA("Nivel de estrés Antes",$G$16,"Nivel de estrés Antes","1. Muy bajo")/GETPIVOTDATA("Nivel de estrés Antes",$G$16)</f>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" t="s">
-        <v>86</v>
-      </c>
-      <c r="D18" t="s">
-        <v>86</v>
-      </c>
-      <c r="F18" t="s">
-        <v>59</v>
+        <v>8</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>Sin cambio</v>
+      </c>
+      <c r="D18">
+        <f>_xlfn.XLOOKUP(A18,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)-_xlfn.XLOOKUP(B18,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="1"/>
+        <v>Sin cambio</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="I18" s="7">
+        <f>GETPIVOTDATA("Nivel de estrés Antes",$G$16,"Nivel de estrés Antes","2. Bajo")/GETPIVOTDATA("Nivel de estrés Antes",$G$16)</f>
+        <v>0.27777777777777779</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C19" t="s">
-        <v>86</v>
-      </c>
-      <c r="D19" t="s">
-        <v>86</v>
-      </c>
-      <c r="F19" t="s">
-        <v>60</v>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>Incremento</v>
+      </c>
+      <c r="D19">
+        <f>_xlfn.XLOOKUP(A19,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)-_xlfn.XLOOKUP(B19,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)</f>
+        <v>-1</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="1"/>
+        <v>Más 1 nivel</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="I19" s="7">
+        <f>GETPIVOTDATA("Nivel de estrés Antes",$G$16,"Nivel de estrés Antes","3. Medio")/GETPIVOTDATA("Nivel de estrés Antes",$G$16)</f>
+        <v>0.3888888888888889</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F20" t="s">
-        <v>100</v>
-      </c>
       <c r="G20" s="6" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="H20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="I20" s="7">
+        <f>GETPIVOTDATA("Nivel de estrés Antes",$G$16,"Nivel de estrés Antes","4. Alto")/GETPIVOTDATA("Nivel de estrés Antes",$G$16)</f>
+        <v>0.22222222222222221</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G21" s="6" t="s">
+        <v>73</v>
+      </c>
       <c r="H21">
-        <f>SUM(H16:H20)</f>
         <v>18</v>
       </c>
-      <c r="I21">
-        <f>SUM(I16:I20)</f>
-        <v>18</v>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G23" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H23" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H24" s="7"/>
+      <c r="G24" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24">
+        <v>11</v>
+      </c>
+      <c r="I24" s="7">
+        <f>GETPIVOTDATA("Nivel de estrés Después",$G$23,"Nivel de estrés Después","2. Bajo")/GETPIVOTDATA("Nivel de estrés Después",$G$23)</f>
+        <v>0.61111111111111116</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H25" s="7"/>
+      <c r="G25" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25">
+        <v>3</v>
+      </c>
+      <c r="I25" s="7">
+        <f>GETPIVOTDATA("Nivel de estrés Después",$G$23,"Nivel de estrés Después","3. Medio")/GETPIVOTDATA("Nivel de estrés Después",$G$23)</f>
+        <v>0.16666666666666666</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H26" s="7"/>
+      <c r="G26" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H26">
+        <v>3</v>
+      </c>
+      <c r="I26" s="7">
+        <f>GETPIVOTDATA("Nivel de estrés Después",$G$23,"Nivel de estrés Después","4. Alto")/GETPIVOTDATA("Nivel de estrés Después",$G$23)</f>
+        <v>0.16666666666666666</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H27" s="7"/>
+      <c r="G27" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27" s="7">
+        <f>GETPIVOTDATA("Nivel de estrés Después",$G$23,"Nivel de estrés Después","5. Muy alto")/GETPIVOTDATA("Nivel de estrés Después",$G$23)</f>
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G28" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="H28">
+        <v>18</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
     </row>
-    <row r="39" spans="11:11" ht="13" x14ac:dyDescent="0.3">
-      <c r="K39" s="8"/>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G30" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="H30" t="s">
+        <v>97</v>
+      </c>
+      <c r="I30" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>99</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31">
+        <f>COUNTIF($A$2:$A$20,G31)</f>
+        <v>2</v>
+      </c>
+      <c r="I31">
+        <f>COUNTIF($B$2:$B$19,G31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
+        <v>76</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32">
+        <f t="shared" ref="H32:H35" si="2">COUNTIF($A$2:$A$20,G32)</f>
+        <v>5</v>
+      </c>
+      <c r="I32">
+        <f t="shared" ref="I32:I35" si="3">COUNTIF($B$2:$B$19,G32)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F33" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F34" t="s">
+        <v>60</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
+        <v>100</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="6:12" ht="13" x14ac:dyDescent="0.3">
+      <c r="L39" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4633A3DC-41A5-45E4-B5B1-871D938969A7}">
-  <dimension ref="A1:K39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F04F22D-18E8-4681-BE53-98D06D17B427}">
+  <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView zoomScale="74" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.08984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>105</v>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="C1" t="s">
         <v>79</v>
       </c>
       <c r="D1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" t="s">
         <v>80</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="F2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="str">
+        <f>IF(A2&lt;B2,"Incremento",IF(A2&gt;B2,"Decremento","Sin cambio"))</f>
+        <v>Decremento</v>
+      </c>
+      <c r="D2">
+        <f>_xlfn.XLOOKUP(A2,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)-_xlfn.XLOOKUP(B2,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="E2" t="str">
+        <f>IF(C2="Incremento", IF(ABS(D2)=1, CONCATENATE("Más ", ABS(D2), " nivel"), CONCATENATE("Más ", ABS(D2), " niveles")),IF(C2="Decremento",IF(D2=1, CONCATENATE("Menos ", D2, " nivel"), CONCATENATE("Menos ", D2, " niveles")), "Sin cambio"))</f>
+        <v>Menos 1 nivel</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="G2">
-        <v>3</v>
+      <c r="H2">
+        <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C19" si="0">IF(A3&lt;B3,"Incremento",IF(A3&gt;B3,"Decremento","Sin cambio"))</f>
+        <v>Sin cambio</v>
+      </c>
+      <c r="D3">
+        <f>_xlfn.XLOOKUP(A3,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)-_xlfn.XLOOKUP(B3,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E19" si="1">IF(C3="Incremento", IF(ABS(D3)=1, CONCATENATE("Más ", ABS(D3), " nivel"), CONCATENATE("Más ", ABS(D3), " niveles")),IF(C3="Decremento",IF(D3=1, CONCATENATE("Menos ", D3, " nivel"), CONCATENATE("Menos ", D3, " niveles")), "Sin cambio"))</f>
+        <v>Sin cambio</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="G3">
-        <v>11</v>
+      <c r="H3">
+        <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>Incremento</v>
+      </c>
+      <c r="D4">
+        <f>_xlfn.XLOOKUP(A4,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)-_xlfn.XLOOKUP(B4,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)</f>
+        <v>-4</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="1"/>
+        <v>Más 4 niveles</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="G4">
-        <v>4</v>
+      <c r="H4">
+        <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D5" t="s">
-        <v>88</v>
-      </c>
-      <c r="F5" s="6" t="s">
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>Decremento</v>
+      </c>
+      <c r="D5">
+        <f>_xlfn.XLOOKUP(A5,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)-_xlfn.XLOOKUP(B5,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="1"/>
+        <v>Menos 1 nivel</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>91</v>
+        <v>8</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>Incremento</v>
+      </c>
+      <c r="D6">
+        <f>_xlfn.XLOOKUP(A6,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)-_xlfn.XLOOKUP(B6,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)</f>
+        <v>-1</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="1"/>
+        <v>Más 1 nivel</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>106</v>
+        <v>7</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>Incremento</v>
+      </c>
+      <c r="D7">
+        <f>_xlfn.XLOOKUP(A7,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)-_xlfn.XLOOKUP(B7,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)</f>
+        <v>-2</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="1"/>
+        <v>Más 2 niveles</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D8" t="s">
-        <v>86</v>
-      </c>
-      <c r="F8" s="5" t="s">
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>Sin cambio</v>
+      </c>
+      <c r="D8">
+        <f>_xlfn.XLOOKUP(A8,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)-_xlfn.XLOOKUP(B8,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="1"/>
+        <v>Sin cambio</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C9" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" t="s">
-        <v>86</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>Sin cambio</v>
+      </c>
+      <c r="D9">
+        <f>_xlfn.XLOOKUP(A9,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)-_xlfn.XLOOKUP(B9,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="1"/>
+        <v>Sin cambio</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>Sin cambio</v>
+      </c>
+      <c r="D10">
+        <f>_xlfn.XLOOKUP(A10,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)-_xlfn.XLOOKUP(B10,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="1"/>
+        <v>Sin cambio</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D10" t="s">
-        <v>86</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="G10">
-        <v>2</v>
+      <c r="H10">
+        <v>12</v>
+      </c>
+      <c r="I10" s="7">
+        <f>GETPIVOTDATA("Valor",$G$8,"Valor","Sin cambio")/GETPIVOTDATA("Valor",$G$8)</f>
+        <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D11" t="s">
-        <v>86</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="G11">
-        <v>11</v>
-      </c>
-      <c r="H11" s="7">
-        <f>GETPIVOTDATA("Valor",$F$8,"Valor","Sin cambio")/GETPIVOTDATA("Valor",$F$8)</f>
-        <v>0.61111111111111116</v>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>Sin cambio</v>
+      </c>
+      <c r="D11">
+        <f>_xlfn.XLOOKUP(A11,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)-_xlfn.XLOOKUP(B11,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="1"/>
+        <v>Sin cambio</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C12" t="s">
-        <v>86</v>
-      </c>
-      <c r="D12" t="s">
-        <v>86</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="G12">
-        <v>2</v>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>Sin cambio</v>
+      </c>
+      <c r="D12">
+        <f>_xlfn.XLOOKUP(A12,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)-_xlfn.XLOOKUP(B12,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="1"/>
+        <v>Sin cambio</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C13" t="s">
-        <v>85</v>
-      </c>
-      <c r="D13" t="s">
-        <v>88</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="G13">
-        <v>2</v>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>Decremento</v>
+      </c>
+      <c r="D13">
+        <f>_xlfn.XLOOKUP(A13,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)-_xlfn.XLOOKUP(B13,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="1"/>
+        <v>Menos 1 nivel</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13">
+        <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C14" t="s">
-        <v>86</v>
-      </c>
-      <c r="D14" t="s">
-        <v>86</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="G14">
-        <v>18</v>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>Sin cambio</v>
+      </c>
+      <c r="D14">
+        <f>_xlfn.XLOOKUP(A14,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)-_xlfn.XLOOKUP(B14,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="1"/>
+        <v>Sin cambio</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="G15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>Sin cambio</v>
+      </c>
+      <c r="D15">
+        <f>_xlfn.XLOOKUP(A15,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)-_xlfn.XLOOKUP(B15,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="1"/>
+        <v>Sin cambio</v>
+      </c>
+      <c r="H15" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="H15" s="9" t="str">
+      <c r="I15" s="9" t="str">
         <f>A1</f>
-        <v>Nivel de disgusto (antes)</v>
-      </c>
-      <c r="I15" s="9" t="str">
+        <v>Nivel de enojo (antes)</v>
+      </c>
+      <c r="J15" s="9" t="str">
         <f>B1</f>
-        <v>Nivel de disgusto (después)</v>
+        <v>Nivel de enojo (después)</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C16" t="s">
-        <v>86</v>
-      </c>
-      <c r="D16" t="s">
-        <v>86</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>Sin cambio</v>
+      </c>
+      <c r="D16">
+        <f>_xlfn.XLOOKUP(A16,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)-_xlfn.XLOOKUP(B16,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="1"/>
+        <v>Sin cambio</v>
+      </c>
+      <c r="G16" t="s">
         <v>99</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="H16" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H16">
-        <f>COUNTIF($A$2:$A$19,G16)</f>
-        <v>12</v>
-      </c>
       <c r="I16">
-        <f>COUNTIF($B$2:$B$19,G16)</f>
-        <v>12</v>
+        <f>COUNTIF($A$2:$A$19,H16)</f>
+        <v>13</v>
+      </c>
+      <c r="J16">
+        <f>COUNTIF($B$2:$B$19,H16)</f>
+        <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" t="s">
-        <v>86</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>Sin cambio</v>
+      </c>
+      <c r="D17">
+        <f>_xlfn.XLOOKUP(A17,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)-_xlfn.XLOOKUP(B17,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="1"/>
+        <v>Sin cambio</v>
+      </c>
+      <c r="G17" t="s">
         <v>76</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="H17" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H17">
-        <f t="shared" ref="H17:H20" si="0">COUNTIF($A$2:$A$19,G17)</f>
+      <c r="I17">
+        <f t="shared" ref="I17:I20" si="2">COUNTIF($A$2:$A$19,H17)</f>
         <v>5</v>
       </c>
-      <c r="I17">
-        <f t="shared" ref="I17:I20" si="1">COUNTIF($B$2:$B$19,G17)</f>
+      <c r="J17">
+        <f t="shared" ref="J17:J20" si="3">COUNTIF($B$2:$B$19,H17)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C18" t="s">
-        <v>86</v>
-      </c>
-      <c r="D18" t="s">
-        <v>86</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>Sin cambio</v>
+      </c>
+      <c r="D18">
+        <f>_xlfn.XLOOKUP(A18,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)-_xlfn.XLOOKUP(B18,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="1"/>
+        <v>Sin cambio</v>
+      </c>
+      <c r="G18" t="s">
         <v>59</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="H18" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H18">
-        <f t="shared" si="0"/>
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="I18">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C19" t="s">
-        <v>86</v>
-      </c>
-      <c r="D19" t="s">
-        <v>86</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>Sin cambio</v>
+      </c>
+      <c r="D19">
+        <f>_xlfn.XLOOKUP(A19,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)-_xlfn.XLOOKUP(B19,'Tabla de valores'!$A$2:$A$6,'Tabla de valores'!$B$2:$B$6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="1"/>
+        <v>Sin cambio</v>
+      </c>
+      <c r="G19" t="s">
         <v>60</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="H19" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H19">
-        <f t="shared" si="0"/>
+      <c r="I19">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I19">
-        <f t="shared" si="1"/>
-        <v>2</v>
+      <c r="J19">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F20" t="s">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
         <v>100</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="H20" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H20">
-        <f t="shared" si="0"/>
+      <c r="I20">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I20">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="J20">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H21">
-        <f>SUM(H16:H20)</f>
-        <v>18</v>
-      </c>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I21">
         <f>SUM(I16:I20)</f>
         <v>18</v>
       </c>
+      <c r="J21">
+        <f>SUM(J16:J20)</f>
+        <v>18</v>
+      </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H24" s="7"/>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H25" s="7"/>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H26" s="7"/>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H27" s="7"/>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I27" s="7"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F29" s="6"/>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G29" s="6"/>
     </row>
-    <row r="39" spans="11:11" ht="13" x14ac:dyDescent="0.3">
-      <c r="K39" s="8"/>
+    <row r="39" spans="12:12" ht="13" x14ac:dyDescent="0.3">
+      <c r="L39" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
